--- a/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
+++ b/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -87,7 +87,7 @@
     <t>007</t>
   </si>
   <si>
-    <t>hitsvqxmcgnmmjrewquq</t>
+    <t>mzyptdjfvccktxnhzqev</t>
   </si>
   <si>
     <t>Check if application is available on phone</t>
@@ -102,7 +102,10 @@
     <t>10/19/21 07:46:59</t>
   </si>
   <si>
-    <t>da89a102d2d3a3048266ac6c76db45f8946f923c</t>
+    <t>10/19/21 07:49:17</t>
+  </si>
+  <si>
+    <t>d5286a70838fafb8787648dda24d987c24103263</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -111,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">100 - 1
+    <t xml:space="preserve">100- 2
 </t>
   </si>
   <si>
@@ -628,13 +631,13 @@
         <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -642,19 +645,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -682,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">

--- a/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
+++ b/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 07:49:17</t>
   </si>
   <si>
-    <t>d5286a70838fafb8787648dda24d987c24103263</t>
+    <t>4eebecfe2af464e2edd2e3bb002f6ade251f8181</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">100- 2
+    <t xml:space="preserve">100-3
 </t>
   </si>
   <si>
@@ -673,13 +673,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.511099537034</v>
+        <v>44907.51248842593</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
+++ b/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 07:49:17</t>
   </si>
   <si>
-    <t>4eebecfe2af464e2edd2e3bb002f6ade251f8181</t>
+    <t>33b785d22e574b8e6421a0e243c7304948b8c2a3</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">100-3
+    <t xml:space="preserve">100-4
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.51248842593</v>
+        <v>44907.51318287037</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
+++ b/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 07:49:17</t>
   </si>
   <si>
-    <t>33b785d22e574b8e6421a0e243c7304948b8c2a3</t>
+    <t>64b0aa293ba4b958cef539cea947cee86af06b73</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">100-4
+    <t xml:space="preserve">10-5
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.51318287037</v>
+        <v>44907.513877314814</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
+++ b/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
@@ -87,7 +87,7 @@
     <t>007</t>
   </si>
   <si>
-    <t>mzyptdjfvccktxnhzqev</t>
+    <t>bonmafynkatbvboeemfv</t>
   </si>
   <si>
     <t>Check if application is available on phone</t>
@@ -102,10 +102,10 @@
     <t>10/19/21 07:46:59</t>
   </si>
   <si>
-    <t>10/19/21 07:49:17</t>
-  </si>
-  <si>
-    <t>64b0aa293ba4b958cef539cea947cee86af06b73</t>
+    <t>10/19/21 08:04:04</t>
+  </si>
+  <si>
+    <t>2a3d53d07e300849307255145cd7cf5ea70e67cb</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">10-5
+    <t xml:space="preserve">10-6
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.513877314814</v>
+        <v>44907.51457175926</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
+++ b/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 08:04:04</t>
   </si>
   <si>
-    <t>2a3d53d07e300849307255145cd7cf5ea70e67cb</t>
+    <t>8229df3bee0d341e16906b32bc90564548159fe3</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">10-6
+    <t xml:space="preserve">100-7
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.51457175926</v>
+        <v>44907.51526620371</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
+++ b/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 08:04:04</t>
   </si>
   <si>
-    <t>8229df3bee0d341e16906b32bc90564548159fe3</t>
+    <t>b012d93497ef2af9b2cd58790ddad6d84a5ca7f9</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">100-7
+    <t xml:space="preserve">100-8
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.51526620371</v>
+        <v>44907.51665509259</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
+++ b/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 08:04:04</t>
   </si>
   <si>
-    <t>b012d93497ef2af9b2cd58790ddad6d84a5ca7f9</t>
+    <t>5b105a2105fd169222b3d8bcabb55d49038c75d3</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">100-8
+    <t xml:space="preserve">100-9
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.51665509259</v>
+        <v>44907.51734953704</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
+++ b/Reports/sub/x1 - Copy/日本語 - Copy (3).xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 08:04:04</t>
   </si>
   <si>
-    <t>5b105a2105fd169222b3d8bcabb55d49038c75d3</t>
+    <t>4eb60a341c881b1ee2ffbd1434241d3e9b7db720</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">100-9
+    <t xml:space="preserve">100-10
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.51734953704</v>
+        <v>44907.51804398148</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
